--- a/Datos/Database by set/Set with text box/Xlsx sets/Japan Junior Tournament (PJJT).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Japan Junior Tournament (PJJT).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A67"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,462 +444,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Elvish Champion</t>
+          <t>('Elvish Champion', ['{1}{G}{G}', 'Creature — Elf', 'Other Elf creatures get +1/+1 and have forestwalk. (They can’t be blocked as long as defending player controls a Forest.)', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{1}{G}{G}</t>
+          <t>('Giant Growth', ['{G}', 'Instant', 'Target creature gets +3/+3 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Elf</t>
+          <t>('Glorious Anthem', ['{1}{W}{W}', 'Enchantment', 'Creatures you control get +1/+1.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Other Elf creatures get +1/+1 and have forestwalk. (They can’t be blocked as long as defending player controls a Forest.)</t>
+          <t>('Mad Auntie', ['{2}{B}', 'Creature — Goblin Shaman', 'Other Goblin creatures you control get +1/+1.', '{T}: Regenerate another target Goblin.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>('Royal Assassin', ['{1}{B}{B}', 'Creature — Human Assassin', '{T}: Destroy target tapped creature.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Giant Growth</t>
+          <t>('Sakura-Tribe Elder', ['{1}{G}', 'Creature — Snake Shaman', 'Sacrifice Sakura-Tribe Elder: Search your library for a basic land card, put that card onto the battlefield tapped, then shuffle your library.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{G}</t>
+          <t>('Shard Phoenix', ['{4}{R}', 'Creature — Phoenix', 'Flying (This creature can’t be blocked except by creatures with flying or reach.)', 'Sacrifice Shard Phoenix: It deals 2 damage to each creature without flying.', '{R}{R}{R}: Return Shard Phoenix from your graveyard to your hand. Activate this ability only during your upkeep.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>('Slith Firewalker', ['{R}{R}', 'Creature — Slith', 'Haste', 'Whenever Slith Firewalker deals combat damage to a player, put a +1/+1 counter on it.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Target creature gets +3/+3 until end of turn.</t>
+          <t>('Soltari Priest', ['{W}{W}', 'Creature — Soltari Cleric', 'Protection from red', 'Shadow (This creature can block or be blocked by only creatures with shadow.)', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Glorious Anthem</t>
+          <t>('Two-Headed Dragon', ['{4}{R}{R}', 'Creature — Dragon', 'Flying', 'Menace (This creature can’t be blocked except by two or more creatures.)', 'Two-Headed Dragon can block an additional creature each combat.', '{1}{R}: Two-Headed Dragon gets +2/+0 until end of turn.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>{1}{W}{W}</t>
+          <t>('Volcanic Hammer', ['{1}{R}', 'Sorcery', 'Volcanic Hammer deals 3 damage to any target.'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Creatures you control get +1/+1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Mad Auntie</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>{2}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Creature — Goblin Shaman</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Other Goblin creatures you control get +1/+1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>{T}: Regenerate another target Goblin.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Royal Assassin</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>{1}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Creature — Human Assassin</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>{T}: Destroy target tapped creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Sakura-Tribe Elder</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>{1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Creature — Snake Shaman</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Sacrifice Sakura-Tribe Elder: Search your library for a basic land card, put that card onto the battlefield tapped, then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Shard Phoenix</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>{4}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Creature — Phoenix</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Flying (This creature can’t be blocked except by creatures with flying or reach.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Sacrifice Shard Phoenix: It deals 2 damage to each creature without flying.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>{R}{R}{R}: Return Shard Phoenix from your graveyard to your hand. Activate this ability only during your upkeep.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Slith Firewalker</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Creature — Slith</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Whenever Slith Firewalker deals combat damage to a player, put a +1/+1 counter on it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Soltari Priest</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Creature — Soltari Cleric</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Protection from red</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Shadow (This creature can block or be blocked by only creatures with shadow.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Two-Headed Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>{4}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Creature — Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Menace (This creature can’t be blocked except by two or more creatures.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Two-Headed Dragon can block an additional creature each combat.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>{1}{R}: Two-Headed Dragon gets +2/+0 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Volcanic Hammer</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Volcanic Hammer deals 3 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Whirling Dervish</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Creature — Human Monk</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Protection from black</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>At the beginning of each end step, if Whirling Dervish dealt damage to an opponent this turn, put a +1/+1 counter on it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>1/1</t>
+          <t>('Whirling Dervish', ['{G}{G}', 'Creature — Human Monk', 'Protection from black', 'At the beginning of each end step, if Whirling Dervish dealt damage to an opponent this turn, put a +1/+1 counter on it.', '1/1'])</t>
         </is>
       </c>
     </row>
